--- a/biology/Botanique/Begonia_abdullahpieei/Begonia_abdullahpieei.xlsx
+++ b/biology/Botanique/Begonia_abdullahpieei/Begonia_abdullahpieei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia abdullahpieei est une espèce de plantes de la famille des Begoniaceae. Ce rare bégonia rhizomateux et originaire de Malaisie est en danger de disparition[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia abdullahpieei est une espèce de plantes de la famille des Begoniaceae. Ce rare bégonia rhizomateux et originaire de Malaisie est en danger de disparition.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante hemicryptophyte ou hélophyte[2].
-L'espèce est caractérisée par ses feuilles symétriques et dont la surface est d'un vert brillant. rhéophyte, elle peut pousser dans les rochers, le long des torrents[3].
-Ce bégonia rhizomateux a des tiges rouges et poilues. Le feuillage vert émeraude, ovoïde et terminé en pointe, est faiblement asymétrique, contrairement à la plupart des bégonias. La face supérieure de la feuille est rugueuse au toucher, à cause des poils saillants. Au revers, la nervure des feuilles est rouge et velue[1].
-Les fleurs mâles ou fleurs femelles sont blanche à rosâtre, avec des étamines ou stigmates jaunes. La fleur mâle s'ouvrira en premier suivie de la fleur femelle[1].
-La capsule du jeune fruit est vert rougeâtre, puis devient brune à maturité. Les graines sont dispersées par la pluie qui secoue la capsule[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante hemicryptophyte ou hélophyte.
+L'espèce est caractérisée par ses feuilles symétriques et dont la surface est d'un vert brillant. rhéophyte, elle peut pousser dans les rochers, le long des torrents.
+Ce bégonia rhizomateux a des tiges rouges et poilues. Le feuillage vert émeraude, ovoïde et terminé en pointe, est faiblement asymétrique, contrairement à la plupart des bégonias. La face supérieure de la feuille est rugueuse au toucher, à cause des poils saillants. Au revers, la nervure des feuilles est rouge et velue.
+Les fleurs mâles ou fleurs femelles sont blanche à rosâtre, avec des étamines ou stigmates jaunes. La fleur mâle s'ouvrira en premier suivie de la fleur femelle.
+La capsule du jeune fruit est vert rougeâtre, puis devient brune à maturité. Les graines sont dispersées par la pluie qui secoue la capsule.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Malaisie[2] où il n'est présent que dans la localité type, Kelian Gunung (état de Perak)[3]. Toutefois, il est abondant à l'échelle locale, à Lata Hijau, Bukit Bintang, accroché aux roches situées le long des cascades[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Malaisie où il n'est présent que dans la localité type, Kelian Gunung (état de Perak). Toutefois, il est abondant à l'échelle locale, à Lata Hijau, Bukit Bintang, accroché aux roches situées le long des cascades.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce fait partie de la section des Platycentrum du genre Begonia, famille des Begoniaceae[4].
-Elle a été décrite en 2005 par la botaniste Ruth Kiew (née en 1946). L'épithète spécifique, abdullahpieei, rend hommage au guide forestier et explorateur, Mr Abdullah Piee[5],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce fait partie de la section des Platycentrum du genre Begonia, famille des Begoniaceae.
+Elle a été décrite en 2005 par la botaniste Ruth Kiew (née en 1946). L'épithète spécifique, abdullahpieei, rend hommage au guide forestier et explorateur, Mr Abdullah Piee,.
 Publication originale : R. Kiew, 2005, Begonias Peninsular Malaysia 252. Publié par Kota Kinabalu : Natural history publications (Borneo) in association with ; Singapore : Singapore Botanic Gardens, National Parks Board, 2005.  (ISBN 9838120863).
 </t>
         </is>
